--- a/OnBoard/output/trust/bio/Bio_Trust_49.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_49.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q235"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10222,1651 +10222,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F201">
-        <v>1</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-      <c r="H201">
-        <v>26</v>
-      </c>
-      <c r="I201">
-        <v>-1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F202">
-        <v>1</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-      <c r="H202">
-        <v>27</v>
-      </c>
-      <c r="I202">
-        <v>-1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F203">
-        <v>1</v>
-      </c>
-      <c r="G203">
-        <v>1</v>
-      </c>
-      <c r="H203">
-        <v>26</v>
-      </c>
-      <c r="I203">
-        <v>-1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F204">
-        <v>1</v>
-      </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-      <c r="H204">
-        <v>28</v>
-      </c>
-      <c r="I204">
-        <v>-1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F205">
-        <v>1</v>
-      </c>
-      <c r="G205">
-        <v>1</v>
-      </c>
-      <c r="H205">
-        <v>35</v>
-      </c>
-      <c r="I205">
-        <v>-1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="G206">
-        <v>1</v>
-      </c>
-      <c r="H206">
-        <v>24</v>
-      </c>
-      <c r="I206">
-        <v>-1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F207">
-        <v>1</v>
-      </c>
-      <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="H207">
-        <v>28</v>
-      </c>
-      <c r="I207">
-        <v>-1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F208">
-        <v>1</v>
-      </c>
-      <c r="G208">
-        <v>1</v>
-      </c>
-      <c r="H208">
-        <v>25</v>
-      </c>
-      <c r="I208">
-        <v>-1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F209">
-        <v>1</v>
-      </c>
-      <c r="G209">
-        <v>1</v>
-      </c>
-      <c r="H209">
-        <v>21</v>
-      </c>
-      <c r="I209">
-        <v>-1</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F210">
-        <v>1</v>
-      </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-      <c r="H210">
-        <v>29</v>
-      </c>
-      <c r="I210">
-        <v>-1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F211">
-        <v>1</v>
-      </c>
-      <c r="G211">
-        <v>1</v>
-      </c>
-      <c r="H211">
-        <v>29</v>
-      </c>
-      <c r="I211">
-        <v>-1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F212">
-        <v>1</v>
-      </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212">
-        <v>26</v>
-      </c>
-      <c r="I212">
-        <v>-1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
-      <c r="G213">
-        <v>1</v>
-      </c>
-      <c r="H213">
-        <v>26</v>
-      </c>
-      <c r="I213">
-        <v>-1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F214">
-        <v>1</v>
-      </c>
-      <c r="G214">
-        <v>1</v>
-      </c>
-      <c r="H214">
-        <v>29</v>
-      </c>
-      <c r="I214">
-        <v>-1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F215">
-        <v>1</v>
-      </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-      <c r="H215">
-        <v>25</v>
-      </c>
-      <c r="I215">
-        <v>-1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F216">
-        <v>1</v>
-      </c>
-      <c r="G216">
-        <v>1</v>
-      </c>
-      <c r="H216">
-        <v>34</v>
-      </c>
-      <c r="I216">
-        <v>-1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F217">
-        <v>1</v>
-      </c>
-      <c r="G217">
-        <v>1</v>
-      </c>
-      <c r="H217">
-        <v>26</v>
-      </c>
-      <c r="I217">
-        <v>-1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F218">
-        <v>1</v>
-      </c>
-      <c r="G218">
-        <v>1</v>
-      </c>
-      <c r="H218">
-        <v>32</v>
-      </c>
-      <c r="I218">
-        <v>-1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F219">
-        <v>1</v>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-      <c r="H219">
-        <v>31</v>
-      </c>
-      <c r="I219">
-        <v>-1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F220">
-        <v>1</v>
-      </c>
-      <c r="G220">
-        <v>1</v>
-      </c>
-      <c r="H220">
-        <v>25</v>
-      </c>
-      <c r="I220">
-        <v>-1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-      <c r="G221">
-        <v>1</v>
-      </c>
-      <c r="H221">
-        <v>36</v>
-      </c>
-      <c r="I221">
-        <v>-1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F222">
-        <v>1</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222">
-        <v>27</v>
-      </c>
-      <c r="I222">
-        <v>-1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F223">
-        <v>1</v>
-      </c>
-      <c r="G223">
-        <v>1</v>
-      </c>
-      <c r="H223">
-        <v>24</v>
-      </c>
-      <c r="I223">
-        <v>-1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F224">
-        <v>1</v>
-      </c>
-      <c r="G224">
-        <v>1</v>
-      </c>
-      <c r="H224">
-        <v>25</v>
-      </c>
-      <c r="I224">
-        <v>-1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F225">
-        <v>1</v>
-      </c>
-      <c r="G225">
-        <v>1</v>
-      </c>
-      <c r="H225">
-        <v>26</v>
-      </c>
-      <c r="I225">
-        <v>-1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F226">
-        <v>1</v>
-      </c>
-      <c r="G226">
-        <v>1</v>
-      </c>
-      <c r="H226">
-        <v>26</v>
-      </c>
-      <c r="I226">
-        <v>-1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F227">
-        <v>1</v>
-      </c>
-      <c r="G227">
-        <v>1</v>
-      </c>
-      <c r="H227">
-        <v>33</v>
-      </c>
-      <c r="I227">
-        <v>-1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F228">
-        <v>1</v>
-      </c>
-      <c r="G228">
-        <v>1</v>
-      </c>
-      <c r="H228">
-        <v>27</v>
-      </c>
-      <c r="I228">
-        <v>-1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F229">
-        <v>1</v>
-      </c>
-      <c r="G229">
-        <v>1</v>
-      </c>
-      <c r="H229">
-        <v>27</v>
-      </c>
-      <c r="I229">
-        <v>-1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F230">
-        <v>1</v>
-      </c>
-      <c r="G230">
-        <v>1</v>
-      </c>
-      <c r="H230">
-        <v>28</v>
-      </c>
-      <c r="I230">
-        <v>-1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F231">
-        <v>1</v>
-      </c>
-      <c r="G231">
-        <v>1</v>
-      </c>
-      <c r="H231">
-        <v>28</v>
-      </c>
-      <c r="I231">
-        <v>-1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F232">
-        <v>1</v>
-      </c>
-      <c r="G232">
-        <v>1</v>
-      </c>
-      <c r="H232">
-        <v>27</v>
-      </c>
-      <c r="I232">
-        <v>-1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F233">
-        <v>1</v>
-      </c>
-      <c r="G233">
-        <v>1</v>
-      </c>
-      <c r="H233">
-        <v>28</v>
-      </c>
-      <c r="I233">
-        <v>-1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F234">
-        <v>1</v>
-      </c>
-      <c r="G234">
-        <v>1</v>
-      </c>
-      <c r="H234">
-        <v>25</v>
-      </c>
-      <c r="I234">
-        <v>-1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F235">
-        <v>1</v>
-      </c>
-      <c r="G235">
-        <v>1</v>
-      </c>
-      <c r="H235">
-        <v>34</v>
-      </c>
-      <c r="I235">
-        <v>-1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L235">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
